--- a/data/edades.xlsx
+++ b/data/edades.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domenica.villalva.01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreidavid.flores\Downloads\Work\Parroquias Datos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B317DF-0864-4BC2-93CB-BABC167AAE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0FABE8-B5B4-4C8B-98ED-81B8B613881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{02667A5A-D298-404B-B863-48503101F61D}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02667A5A-D298-404B-B863-48503101F61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$81</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="19">
   <si>
     <t>Genero</t>
   </si>
@@ -479,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D063019C-608B-45E1-A86D-37724C15713F}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1524,7 +1530,1538 @@
         <v>171351</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2022</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2022</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2022</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2022</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2022</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2022</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2022</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2022</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2022</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2022</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2022</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2022</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2022</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2022</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2022</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2022</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>21826</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2022</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>9923</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2022</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2022</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>7749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2022</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2022</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>24764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2022</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2022</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2022</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2001</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2001</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2001</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2001</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2001</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2001</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2001</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2001</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2001</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2001</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>10722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2001</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2001</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2001</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2001</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2001</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>11523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2001</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2001</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2001</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2001</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2001</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2001</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2001</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2001</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2001</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2001</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2001</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2001</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2010</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2010</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2010</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2010</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2010</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2010</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2010</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2010</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2010</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2010</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2010</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2010</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2010</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2010</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2010</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2010</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2010</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2010</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2010</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2010</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2010</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2010</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2010</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2010</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2010</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2010</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2010</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2010</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2010</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E81" xr:uid="{D063019C-608B-45E1-A86D-37724C15713F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>